--- a/Predictions_QWEN0.5B/wave123_all_predictions/prefinetuned_predictions_imputedw123.xlsx
+++ b/Predictions_QWEN0.5B/wave123_all_predictions/prefinetuned_predictions_imputedw123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave123_all_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6A329-2F1A-45A7-975C-609408AD2A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79893685-C4C6-4976-BDE8-40DFF028161D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="15">
   <si>
     <t>Predicted_Label</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>f_0</t>
+  </si>
+  <si>
+    <t>f_c</t>
+  </si>
+  <si>
+    <t>Sigma_k</t>
   </si>
 </sst>
 </file>
@@ -4246,7 +4255,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E82BA978-A802-49A7-8DD5-D109AE5D9E32}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E82BA978-A802-49A7-8DD5-D109AE5D9E32}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K4:O8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -4599,7 +4608,7 @@
   <dimension ref="A1:O1014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4860,6 +4869,12 @@
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>568</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -4885,6 +4900,13 @@
         <f>568/1013</f>
         <v>0.56071076011845999</v>
       </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <f>1013*568/1013</f>
+        <v>568</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -4920,6 +4942,13 @@
       <c r="E14">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <f>SQRT(O11*(1-(O11/1013)))/(1013-O12)</f>
+        <v>3.5496819294712635E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
